--- a/HolidayCalendarService/Template/Copilot German.xlsx
+++ b/HolidayCalendarService/Template/Copilot German.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28230"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoschreder\Development\holidaycalendarapp\HolidayCalendarService\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC4246-260D-47F5-BA07-3BEE31F2957C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C832CAB-4AE9-4680-B9AD-FEAF784B18A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>Title</t>
   </si>
@@ -66,15 +66,9 @@
     <t>Video</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=S7xTBa93TX8</t>
-  </si>
-  <si>
     <t>https://blogs.microsoft.com/blog/2023/03/16/introducing-microsoft-365-copilot-your-copilot-for-work/</t>
   </si>
   <si>
-    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/eace3d43-b6f7-418d-9cf7-651467b90247/3a19e980-f774-4f2e-a4fe-b3b88599_6750.mp4</t>
-  </si>
-  <si>
     <t>https://make.powerautomate.com/</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/c1a813f9-251c-4b99-96e1-06b42b8581c9/c9eb474e-ba07-4920-a45d-cc5f9989_3400.mp4</t>
   </si>
   <si>
-    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/v1/wus001/9d31a28f-2d93-45ac-b25d-6e46e1b4790e/d5df4792-9133-447c-b187-27360f9d456d_3400.mp4</t>
-  </si>
-  <si>
-    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/v1/wus002/7fe597f8-8fdd-47c0-b0a8-d433355006c7/2dc62db9-1547-4465-a522-a7becf29319b_3400.mp4</t>
-  </si>
-  <si>
     <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/f74a034e-fa47-4437-bf35-a97b5075a9e3/f9cc0029-152c-41d8-832b-5e82dc4c_3400.mp4</t>
   </si>
   <si>
@@ -354,79 +342,19 @@
     <t>https://support.microsoft.com/de-DE/office/elevate-your-content-with-copilot-in-word-923d9763-f896-4da7-8a3f-5b12c3bfc475</t>
   </si>
   <si>
-    <t>12/1/2024</t>
-  </si>
-  <si>
-    <t>12/2/2024</t>
-  </si>
-  <si>
-    <t>12/3/2024</t>
-  </si>
-  <si>
-    <t>12/4/2024</t>
-  </si>
-  <si>
-    <t>12/5/2024</t>
-  </si>
-  <si>
-    <t>12/6/2024</t>
-  </si>
-  <si>
-    <t>12/7/2024</t>
-  </si>
-  <si>
-    <t>12/8/2024</t>
-  </si>
-  <si>
-    <t>12/9/2024</t>
-  </si>
-  <si>
-    <t>12/10/2024</t>
-  </si>
-  <si>
-    <t>12/11/2024</t>
-  </si>
-  <si>
-    <t>12/12/2024</t>
-  </si>
-  <si>
-    <t>12/13/2024</t>
-  </si>
-  <si>
-    <t>12/14/2024</t>
-  </si>
-  <si>
-    <t>12/15/2024</t>
-  </si>
-  <si>
-    <t>12/16/2024</t>
-  </si>
-  <si>
-    <t>12/17/2024</t>
-  </si>
-  <si>
-    <t>12/18/2024</t>
-  </si>
-  <si>
-    <t>12/19/2024</t>
-  </si>
-  <si>
-    <t>12/20/2024</t>
-  </si>
-  <si>
-    <t>12/21/2024</t>
-  </si>
-  <si>
-    <t>12/22/2024</t>
-  </si>
-  <si>
-    <t>12/23/2024</t>
-  </si>
-  <si>
-    <t>12/24/2024</t>
-  </si>
-  <si>
-    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/v1/wus001/09ec7943-6593-451d-aa67-4a9daac0bee5/0743e8bb-9abd-4d44-aa0e-29bb3326f207_6750.mp4</t>
+    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/fbc4bfc3-191c-4087-b5ce-3c08bf3a6582/8bd5ace4-3080-49e7-9ed5-608b9979_3400.mp4</t>
+  </si>
+  <si>
+    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/5e4cf09f-be79-4520-b819-bb0978bea3b3/9b934347-1ccf-4b1b-a0b6-00f7dc0e_3400.mp4</t>
+  </si>
+  <si>
+    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/200024d1-aa90-44f3-9131-b47b8168472a/2c760ca3-b9c2-432a-8eda-29eb9b1e_3400.mp4</t>
+  </si>
+  <si>
+    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/f2915446-534c-4981-afa0-4c1295ef267a/45a7ec05-3f9a-40b6-9b9e-40ad608b_3400.mp4</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20German/1.mp4</t>
   </si>
 </sst>
 </file>
@@ -462,10 +390,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +403,7 @@
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,20 +743,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="144.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.23046875" customWidth="1"/>
+    <col min="2" max="2" width="11.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" customWidth="1"/>
+    <col min="4" max="4" width="138.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -846,487 +773,487 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45627</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45628</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45629</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>129</v>
+      <c r="D4" t="s">
+        <v>101</v>
       </c>
       <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45630</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45631</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45632</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45633</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45634</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
         <v>85</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45635</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45636</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45637</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45638</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45639</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
         <v>90</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>118</v>
+      <c r="B15" s="1">
+        <v>45640</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45641</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45642</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45643</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45644</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>31</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45645</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45646</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>32</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45647</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>33</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45648</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45649</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>128</v>
+      <c r="B25" s="1">
+        <v>45650</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1358,32 +1285,32 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1397,6 +1324,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="b9fca909-5068-4889-a98d-66367aed6236" xsi:nil="true"/>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b9fca909-5068-4889-a98d-66367aed6236">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001262F956B7C6624B8AD32B2C07A4016A" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74ff8fbec5957ef2b318bb7f92bedf33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b9fca909-5068-4889-a98d-66367aed6236" xmlns:ns3="21f48a0c-0825-4f9a-8098-6cb539880210" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a08b0ffcd451d310925d3135f95e51b0" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1691,30 +1641,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="21f48a0c-0825-4f9a-8098-6cb539880210"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b9fca909-5068-4889-a98d-66367aed6236"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="b9fca909-5068-4889-a98d-66367aed6236" xsi:nil="true"/>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b9fca909-5068-4889-a98d-66367aed6236">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8694C0A-ADEC-4C43-BEC1-E9BC82895567}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1735,33 +1689,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="21f48a0c-0825-4f9a-8098-6cb539880210"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b9fca909-5068-4889-a98d-66367aed6236"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{87867195-f2b8-4ac2-b0b6-6bb73cb33afc}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/HolidayCalendarService/Template/Copilot German.xlsx
+++ b/HolidayCalendarService/Template/Copilot German.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoschreder\Development\holidaycalendarapp\HolidayCalendarService\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C832CAB-4AE9-4680-B9AD-FEAF784B18A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30806AC7-2D83-4F2F-A7B3-5B60F05B01C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -342,19 +342,19 @@
     <t>https://support.microsoft.com/de-DE/office/elevate-your-content-with-copilot-in-word-923d9763-f896-4da7-8a3f-5b12c3bfc475</t>
   </si>
   <si>
-    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/fbc4bfc3-191c-4087-b5ce-3c08bf3a6582/8bd5ace4-3080-49e7-9ed5-608b9979_3400.mp4</t>
-  </si>
-  <si>
-    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/5e4cf09f-be79-4520-b819-bb0978bea3b3/9b934347-1ccf-4b1b-a0b6-00f7dc0e_3400.mp4</t>
-  </si>
-  <si>
-    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/200024d1-aa90-44f3-9131-b47b8168472a/2c760ca3-b9c2-432a-8eda-29eb9b1e_3400.mp4</t>
-  </si>
-  <si>
-    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/f2915446-534c-4981-afa0-4c1295ef267a/45a7ec05-3f9a-40b6-9b9e-40ad608b_3400.mp4</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20German/1.mp4</t>
+    <t>https://www.youtube.com/watch?v=S7xTBa93TX8</t>
+  </si>
+  <si>
+    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/v1/wus001/09ec7943-6593-451d-aa67-4a9daac0bee5/0743e8bb-9abd-4d44-aa0e-29bb3326f207_6750.mp4</t>
+  </si>
+  <si>
+    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/eace3d43-b6f7-418d-9cf7-651467b90247/3a19e980-f774-4f2e-a4fe-b3b88599_6750.mp4</t>
+  </si>
+  <si>
+    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/v1/wus002/7fe597f8-8fdd-47c0-b0a8-d433355006c7/2dc62db9-1547-4465-a522-a7becf29319b_3400.mp4</t>
+  </si>
+  <si>
+    <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/v1/wus001/9d31a28f-2d93-45ac-b25d-6e46e1b4790e/d5df4792-9133-447c-b187-27360f9d456d_3400.mp4</t>
   </si>
 </sst>
 </file>
@@ -390,10 +390,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,21 +741,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84369A7A-C71A-4FC7-A505-0F3C8D7D9355}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.23046875" customWidth="1"/>
-    <col min="2" max="2" width="11.23046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" customWidth="1"/>
-    <col min="4" max="4" width="138.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="138.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -786,8 +785,8 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>105</v>
+      <c r="D2" t="s">
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -796,7 +795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -816,7 +815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -827,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
@@ -836,7 +835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -856,7 +855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -876,7 +875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -896,7 +895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -916,7 +915,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -936,7 +935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -947,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>86</v>
@@ -956,7 +955,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -976,7 +975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -996,7 +995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1056,7 +1055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
         <v>95</v>
@@ -1136,7 +1135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
         <v>98</v>
@@ -1196,7 +1195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1285,32 +1284,32 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.23046875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1324,29 +1323,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="b9fca909-5068-4889-a98d-66367aed6236" xsi:nil="true"/>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b9fca909-5068-4889-a98d-66367aed6236">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001262F956B7C6624B8AD32B2C07A4016A" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74ff8fbec5957ef2b318bb7f92bedf33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b9fca909-5068-4889-a98d-66367aed6236" xmlns:ns3="21f48a0c-0825-4f9a-8098-6cb539880210" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a08b0ffcd451d310925d3135f95e51b0" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1641,34 +1617,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="21f48a0c-0825-4f9a-8098-6cb539880210"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b9fca909-5068-4889-a98d-66367aed6236"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="b9fca909-5068-4889-a98d-66367aed6236" xsi:nil="true"/>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b9fca909-5068-4889-a98d-66367aed6236">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8694C0A-ADEC-4C43-BEC1-E9BC82895567}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1689,6 +1661,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="21f48a0c-0825-4f9a-8098-6cb539880210"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b9fca909-5068-4889-a98d-66367aed6236"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{87867195-f2b8-4ac2-b0b6-6bb73cb33afc}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
